--- a/2018/CRM/BA_Checklist/SOF.QP.04.M05_BAChecklistERP_CRMF2083_Ver1.xlsx
+++ b/2018/CRM/BA_Checklist/SOF.QP.04.M05_BAChecklistERP_CRMF2083_Ver1.xlsx
@@ -1037,6 +1037,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1088,24 +1106,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1135,312 +1135,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="93">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="32">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1634,7 +1329,7 @@
         <xdr:cNvPr id="2" name="Picture 659" descr="Logo 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1686,7 +1381,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1734,7 +1429,7 @@
         <xdr:cNvPr id="2" name="Picture 659" descr="Logo 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1786,7 +1481,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1852,7 +1547,7 @@
         <xdr:cNvPr id="2" name="Picture 659" descr="Logo 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1904,7 +1599,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1970,7 +1665,7 @@
         <xdr:cNvPr id="2" name="Picture 659" descr="Logo 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2022,7 +1717,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2088,7 +1783,7 @@
         <xdr:cNvPr id="2" name="Picture 659" descr="Logo 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2140,7 +1835,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2206,7 +1901,7 @@
         <xdr:cNvPr id="2" name="Picture 659" descr="Logo 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2258,7 +1953,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2628,16 +2323,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="47" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
       <c r="J1" s="2" t="s">
         <v>23</v>
       </c>
@@ -2646,28 +2341,28 @@
       </c>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
       <c r="J2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="15.75">
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
       <c r="J3" s="2" t="s">
         <v>25</v>
       </c>
@@ -2736,94 +2431,94 @@
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="56" t="s">
+      <c r="C10" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="53" t="s">
+      <c r="E10" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="53" t="s">
+      <c r="F10" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="59" t="s">
+      <c r="G10" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="59"/>
-      <c r="I10" s="60" t="s">
+      <c r="H10" s="65"/>
+      <c r="I10" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="61"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="60" t="s">
+      <c r="J10" s="44"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="M10" s="61"/>
-      <c r="N10" s="62"/>
-      <c r="O10" s="60" t="s">
+      <c r="M10" s="44"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="62"/>
-      <c r="R10" s="60" t="s">
+      <c r="P10" s="44"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="S10" s="61"/>
-      <c r="T10" s="62"/>
-      <c r="U10" s="60" t="s">
+      <c r="S10" s="44"/>
+      <c r="T10" s="45"/>
+      <c r="U10" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="V10" s="61"/>
-      <c r="W10" s="62"/>
+      <c r="V10" s="44"/>
+      <c r="W10" s="45"/>
     </row>
     <row r="11" spans="1:23">
-      <c r="B11" s="54"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="63" t="s">
+      <c r="B11" s="60"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="H11" s="64"/>
-      <c r="I11" s="63" t="s">
+      <c r="H11" s="47"/>
+      <c r="I11" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="65"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="63" t="s">
+      <c r="J11" s="48"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="M11" s="65"/>
-      <c r="N11" s="64"/>
-      <c r="O11" s="63" t="s">
+      <c r="M11" s="48"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="P11" s="65"/>
-      <c r="Q11" s="64"/>
-      <c r="R11" s="63" t="s">
+      <c r="P11" s="48"/>
+      <c r="Q11" s="47"/>
+      <c r="R11" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="S11" s="65"/>
-      <c r="T11" s="64"/>
-      <c r="U11" s="63" t="s">
+      <c r="S11" s="48"/>
+      <c r="T11" s="47"/>
+      <c r="U11" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="V11" s="65"/>
-      <c r="W11" s="64"/>
+      <c r="V11" s="48"/>
+      <c r="W11" s="47"/>
     </row>
     <row r="12" spans="1:23" ht="28.5">
       <c r="A12" s="6"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
       <c r="G12" s="7" t="s">
         <v>16</v>
       </c>
@@ -2881,7 +2576,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="9"/>
-      <c r="D13" s="43" t="s">
+      <c r="D13" s="49" t="s">
         <v>5</v>
       </c>
       <c r="E13" s="18" t="s">
@@ -2913,7 +2608,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="9"/>
-      <c r="D14" s="44"/>
+      <c r="D14" s="50"/>
       <c r="E14" s="18" t="s">
         <v>84</v>
       </c>
@@ -2943,7 +2638,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="9"/>
-      <c r="D15" s="45"/>
+      <c r="D15" s="51"/>
       <c r="E15" s="19" t="s">
         <v>80</v>
       </c>
@@ -3801,6 +3496,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="B1:D3"/>
+    <mergeCell ref="E1:I3"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:K10"/>
     <mergeCell ref="L10:N10"/>
     <mergeCell ref="O10:Q10"/>
     <mergeCell ref="R10:T10"/>
@@ -3811,34 +3516,24 @@
     <mergeCell ref="O11:Q11"/>
     <mergeCell ref="R11:T11"/>
     <mergeCell ref="U11:W11"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="B1:D3"/>
-    <mergeCell ref="E1:I3"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:K10"/>
   </mergeCells>
   <conditionalFormatting sqref="G13:G43 I13:J43 L13:M43 O13:P43 R13:S43 U13:V43">
-    <cfRule type="expression" dxfId="92" priority="4">
+    <cfRule type="expression" dxfId="31" priority="4">
       <formula>G13="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44 I44:J44 L44:M44 O44:P44 R44:S44 U44:V44">
-    <cfRule type="expression" dxfId="91" priority="3">
+    <cfRule type="expression" dxfId="30" priority="3">
       <formula>G44="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45 I45:J45 L45:M45 O45:P45 R45:S45 U45:V45">
-    <cfRule type="expression" dxfId="90" priority="2">
+    <cfRule type="expression" dxfId="29" priority="2">
       <formula>G45="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46 I46:J46 L46:M46 O46:P46 R46:S46 U46:V46">
-    <cfRule type="expression" dxfId="89" priority="1">
+    <cfRule type="expression" dxfId="28" priority="1">
       <formula>G46="NG"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3889,16 +3584,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="47" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
       <c r="J1" s="2" t="s">
         <v>23</v>
       </c>
@@ -3907,28 +3602,28 @@
       </c>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
       <c r="J2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
       <c r="J3" s="2" t="s">
         <v>25</v>
       </c>
@@ -4017,95 +3712,95 @@
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:23">
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="56" t="s">
+      <c r="C12" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="53" t="s">
+      <c r="D12" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="53" t="s">
+      <c r="E12" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="53" t="s">
+      <c r="F12" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="59" t="s">
+      <c r="G12" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="59"/>
-      <c r="I12" s="60" t="s">
+      <c r="H12" s="65"/>
+      <c r="I12" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="61"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="60" t="s">
+      <c r="J12" s="44"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="M12" s="61"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="60" t="s">
+      <c r="M12" s="44"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="P12" s="61"/>
-      <c r="Q12" s="62"/>
-      <c r="R12" s="60" t="s">
+      <c r="P12" s="44"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="S12" s="61"/>
-      <c r="T12" s="62"/>
-      <c r="U12" s="60" t="s">
+      <c r="S12" s="44"/>
+      <c r="T12" s="45"/>
+      <c r="U12" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="V12" s="61"/>
-      <c r="W12" s="62"/>
+      <c r="V12" s="44"/>
+      <c r="W12" s="45"/>
     </row>
     <row r="13" spans="1:23">
-      <c r="B13" s="54"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="63" t="str">
+      <c r="B13" s="60"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="46" t="str">
         <f>'Bắt buộc'!G11:H11</f>
         <v>Reviewer: [Đào Tấn Đạt]</v>
       </c>
-      <c r="H13" s="64"/>
-      <c r="I13" s="63" t="s">
+      <c r="H13" s="47"/>
+      <c r="I13" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="65"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="63" t="s">
+      <c r="J13" s="48"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="M13" s="65"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="63" t="s">
+      <c r="M13" s="48"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="P13" s="65"/>
-      <c r="Q13" s="64"/>
-      <c r="R13" s="63" t="s">
+      <c r="P13" s="48"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="S13" s="65"/>
-      <c r="T13" s="64"/>
-      <c r="U13" s="63" t="s">
+      <c r="S13" s="48"/>
+      <c r="T13" s="47"/>
+      <c r="U13" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="V13" s="65"/>
-      <c r="W13" s="64"/>
+      <c r="V13" s="48"/>
+      <c r="W13" s="47"/>
     </row>
     <row r="14" spans="1:23" ht="28.5">
       <c r="A14" s="6"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
       <c r="G14" s="7" t="s">
         <v>16</v>
       </c>
@@ -5126,15 +4821,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B1:D3"/>
-    <mergeCell ref="E1:I3"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="C12:C14"/>
     <mergeCell ref="D16:D23"/>
     <mergeCell ref="L12:N12"/>
     <mergeCell ref="O12:Q12"/>
@@ -5146,34 +4832,43 @@
     <mergeCell ref="O13:Q13"/>
     <mergeCell ref="R13:T13"/>
     <mergeCell ref="U13:W13"/>
+    <mergeCell ref="B1:D3"/>
+    <mergeCell ref="E1:I3"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="C12:C14"/>
   </mergeCells>
   <conditionalFormatting sqref="I15:J43 L15:M43 O15:P43 R15:S43 U15:V43 G15:G27 G36:G43 G29:G33">
-    <cfRule type="expression" dxfId="88" priority="7">
+    <cfRule type="expression" dxfId="27" priority="7">
       <formula>G15="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44 I44:J44 L44:M44 O44:P44 R44:S44 U44:V44">
-    <cfRule type="expression" dxfId="87" priority="6">
+    <cfRule type="expression" dxfId="26" priority="6">
       <formula>G44="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45 I45:J45 L45:M45 O45:P45 R45:S45 U45:V45">
-    <cfRule type="expression" dxfId="86" priority="5">
+    <cfRule type="expression" dxfId="25" priority="5">
       <formula>G45="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="expression" dxfId="41" priority="3">
+    <cfRule type="expression" dxfId="24" priority="3">
       <formula>G35="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="expression" dxfId="39" priority="2">
+    <cfRule type="expression" dxfId="23" priority="2">
       <formula>G34="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="expression" dxfId="37" priority="1">
+    <cfRule type="expression" dxfId="22" priority="1">
       <formula>G28="NG"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5230,16 +4925,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="47" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
       <c r="J1" s="2" t="s">
         <v>23</v>
       </c>
@@ -5248,28 +4943,28 @@
       </c>
     </row>
     <row r="2" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
       <c r="J2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:22" s="1" customFormat="1" ht="15.75">
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
       <c r="J3" s="2" t="s">
         <v>25</v>
       </c>
@@ -5358,89 +5053,89 @@
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:22">
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="56" t="s">
+      <c r="C12" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="53" t="s">
+      <c r="D12" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="53" t="s">
+      <c r="E12" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="53" t="s">
+      <c r="F12" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="59" t="s">
+      <c r="G12" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="59"/>
-      <c r="I12" s="60" t="s">
+      <c r="H12" s="65"/>
+      <c r="I12" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="61"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="60" t="s">
+      <c r="J12" s="44"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="O12" s="61"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="60" t="s">
+      <c r="O12" s="44"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="R12" s="61"/>
-      <c r="S12" s="62"/>
-      <c r="T12" s="60" t="s">
+      <c r="R12" s="44"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="U12" s="61"/>
-      <c r="V12" s="62"/>
+      <c r="U12" s="44"/>
+      <c r="V12" s="45"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="B13" s="54"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="63" t="str">
+      <c r="B13" s="60"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="46" t="str">
         <f>'Bắt buộc'!G11:H11</f>
         <v>Reviewer: [Đào Tấn Đạt]</v>
       </c>
-      <c r="H13" s="64"/>
-      <c r="I13" s="63" t="s">
+      <c r="H13" s="47"/>
+      <c r="I13" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="65"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="65"/>
-      <c r="M13" s="64"/>
-      <c r="N13" s="63" t="s">
+      <c r="J13" s="48"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="O13" s="65"/>
-      <c r="P13" s="64"/>
-      <c r="Q13" s="63" t="s">
+      <c r="O13" s="48"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="R13" s="65"/>
-      <c r="S13" s="64"/>
-      <c r="T13" s="63" t="s">
+      <c r="R13" s="48"/>
+      <c r="S13" s="47"/>
+      <c r="T13" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="U13" s="65"/>
-      <c r="V13" s="64"/>
+      <c r="U13" s="48"/>
+      <c r="V13" s="47"/>
     </row>
     <row r="14" spans="1:22" ht="28.5">
       <c r="A14" s="6"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
       <c r="G14" s="7" t="s">
         <v>16</v>
       </c>
@@ -6469,6 +6164,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D15:D20"/>
+    <mergeCell ref="B1:D3"/>
+    <mergeCell ref="E1:I3"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="C12:C14"/>
     <mergeCell ref="T12:V12"/>
     <mergeCell ref="T13:V13"/>
     <mergeCell ref="N12:P12"/>
@@ -6481,32 +6184,24 @@
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="I13:K13"/>
     <mergeCell ref="L13:M13"/>
-    <mergeCell ref="D15:D20"/>
-    <mergeCell ref="B1:D3"/>
-    <mergeCell ref="E1:I3"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="C12:C14"/>
   </mergeCells>
   <conditionalFormatting sqref="I15:J45 N15:O45 Q15:R45 T15:U45 L15:L48 G15:G45">
-    <cfRule type="expression" dxfId="85" priority="15">
+    <cfRule type="expression" dxfId="21" priority="15">
       <formula>G15="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46 I46:J46 N46:O46 Q46:R46 T46:U46">
-    <cfRule type="expression" dxfId="84" priority="3">
+    <cfRule type="expression" dxfId="20" priority="3">
       <formula>G46="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47 I47:J47 N47:O47 Q47:R47 T47:U47">
-    <cfRule type="expression" dxfId="83" priority="2">
+    <cfRule type="expression" dxfId="19" priority="2">
       <formula>G47="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G48 I48:J48 N48:O48 Q48:R48 T48:U48">
-    <cfRule type="expression" dxfId="82" priority="1">
+    <cfRule type="expression" dxfId="18" priority="1">
       <formula>G48="NG"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6557,16 +6252,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="47" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
       <c r="J1" s="2" t="s">
         <v>23</v>
       </c>
@@ -6575,28 +6270,28 @@
       </c>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
       <c r="J2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
       <c r="J3" s="2" t="s">
         <v>25</v>
       </c>
@@ -6685,95 +6380,95 @@
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:23">
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="56" t="s">
+      <c r="C12" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="53" t="s">
+      <c r="D12" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="53" t="s">
+      <c r="E12" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="53" t="s">
+      <c r="F12" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="59" t="s">
+      <c r="G12" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="59"/>
-      <c r="I12" s="60" t="s">
+      <c r="H12" s="65"/>
+      <c r="I12" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="61"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="60" t="s">
+      <c r="J12" s="44"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="M12" s="61"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="60" t="s">
+      <c r="M12" s="44"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="P12" s="61"/>
-      <c r="Q12" s="62"/>
-      <c r="R12" s="60" t="s">
+      <c r="P12" s="44"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="S12" s="61"/>
-      <c r="T12" s="62"/>
-      <c r="U12" s="60" t="s">
+      <c r="S12" s="44"/>
+      <c r="T12" s="45"/>
+      <c r="U12" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="V12" s="61"/>
-      <c r="W12" s="62"/>
+      <c r="V12" s="44"/>
+      <c r="W12" s="45"/>
     </row>
     <row r="13" spans="1:23">
-      <c r="B13" s="54"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="63" t="str">
+      <c r="B13" s="60"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="46" t="str">
         <f>'Bắt buộc'!G11:H11</f>
         <v>Reviewer: [Đào Tấn Đạt]</v>
       </c>
-      <c r="H13" s="64"/>
-      <c r="I13" s="63" t="s">
+      <c r="H13" s="47"/>
+      <c r="I13" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="65"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="63" t="s">
+      <c r="J13" s="48"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="M13" s="65"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="63" t="s">
+      <c r="M13" s="48"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="P13" s="65"/>
-      <c r="Q13" s="64"/>
-      <c r="R13" s="63" t="s">
+      <c r="P13" s="48"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="S13" s="65"/>
-      <c r="T13" s="64"/>
-      <c r="U13" s="63" t="s">
+      <c r="S13" s="48"/>
+      <c r="T13" s="47"/>
+      <c r="U13" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="V13" s="65"/>
-      <c r="W13" s="64"/>
+      <c r="V13" s="48"/>
+      <c r="W13" s="47"/>
     </row>
     <row r="14" spans="1:23" ht="28.5">
       <c r="A14" s="6"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
       <c r="G14" s="7" t="s">
         <v>16</v>
       </c>
@@ -7910,21 +7605,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="D30:D36"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="B1:D3"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E1:I3"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="C12:C14"/>
     <mergeCell ref="U12:W12"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="I13:K13"/>
@@ -7935,19 +7615,34 @@
     <mergeCell ref="L12:N12"/>
     <mergeCell ref="O12:Q12"/>
     <mergeCell ref="R12:T12"/>
+    <mergeCell ref="E1:I3"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="D30:D36"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="B1:D3"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D24:D25"/>
   </mergeCells>
   <conditionalFormatting sqref="I15:J48 L15:M48 O15:P48 R15:S48 U15:V48 G15:G48">
-    <cfRule type="expression" dxfId="81" priority="4">
+    <cfRule type="expression" dxfId="17" priority="4">
       <formula>G15="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49 I49:J49 L49:M49 O49:P49 R49:S49 U49:V49">
-    <cfRule type="expression" dxfId="80" priority="3">
+    <cfRule type="expression" dxfId="16" priority="3">
       <formula>G49="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50 I50:J50 L50:M50 O50:P50 R50:S50 U50:V50">
-    <cfRule type="expression" dxfId="79" priority="2">
+    <cfRule type="expression" dxfId="15" priority="2">
       <formula>G50="NG"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8004,16 +7699,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="47" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
       <c r="J1" s="2" t="s">
         <v>23</v>
       </c>
@@ -8022,28 +7717,28 @@
       </c>
     </row>
     <row r="2" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
       <c r="J2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:22" s="1" customFormat="1" ht="15.75">
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
       <c r="J3" s="2" t="s">
         <v>25</v>
       </c>
@@ -8132,89 +7827,89 @@
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:22">
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="56" t="s">
+      <c r="C12" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="53" t="s">
+      <c r="D12" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="53" t="s">
+      <c r="E12" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="53" t="s">
+      <c r="F12" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="59" t="s">
+      <c r="G12" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="59"/>
-      <c r="I12" s="60" t="s">
+      <c r="H12" s="65"/>
+      <c r="I12" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="61"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="60" t="s">
+      <c r="J12" s="44"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="O12" s="61"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="60" t="s">
+      <c r="O12" s="44"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="R12" s="61"/>
-      <c r="S12" s="62"/>
-      <c r="T12" s="60" t="s">
+      <c r="R12" s="44"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="U12" s="61"/>
-      <c r="V12" s="62"/>
+      <c r="U12" s="44"/>
+      <c r="V12" s="45"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="B13" s="54"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="63" t="str">
+      <c r="B13" s="60"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="46" t="str">
         <f>'Bắt buộc'!G11:H11</f>
         <v>Reviewer: [Đào Tấn Đạt]</v>
       </c>
-      <c r="H13" s="64"/>
-      <c r="I13" s="63" t="s">
+      <c r="H13" s="47"/>
+      <c r="I13" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="65"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="65"/>
-      <c r="M13" s="64"/>
-      <c r="N13" s="63" t="s">
+      <c r="J13" s="48"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="O13" s="65"/>
-      <c r="P13" s="64"/>
-      <c r="Q13" s="63" t="s">
+      <c r="O13" s="48"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="R13" s="65"/>
-      <c r="S13" s="64"/>
-      <c r="T13" s="63" t="s">
+      <c r="R13" s="48"/>
+      <c r="S13" s="47"/>
+      <c r="T13" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="U13" s="65"/>
-      <c r="V13" s="64"/>
+      <c r="U13" s="48"/>
+      <c r="V13" s="47"/>
     </row>
     <row r="14" spans="1:22" ht="28.5">
       <c r="A14" s="6"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
       <c r="G14" s="7" t="s">
         <v>16</v>
       </c>
@@ -9140,6 +8835,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B1:D3"/>
+    <mergeCell ref="E1:I3"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:K12"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="N12:P12"/>
     <mergeCell ref="Q12:S12"/>
@@ -9150,33 +8854,24 @@
     <mergeCell ref="N13:P13"/>
     <mergeCell ref="Q13:S13"/>
     <mergeCell ref="T13:V13"/>
-    <mergeCell ref="B1:D3"/>
-    <mergeCell ref="E1:I3"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:K12"/>
   </mergeCells>
   <conditionalFormatting sqref="G15:G45 I15:J45 N15:O45 Q15:R45 T15:U45 L15:L48">
-    <cfRule type="expression" dxfId="78" priority="4">
+    <cfRule type="expression" dxfId="14" priority="4">
       <formula>G15="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46 I46:J46 N46:O46 Q46:R46 T46:U46">
-    <cfRule type="expression" dxfId="77" priority="3">
+    <cfRule type="expression" dxfId="13" priority="3">
       <formula>G46="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47 I47:J47 N47:O47 Q47:R47 T47:U47">
-    <cfRule type="expression" dxfId="76" priority="2">
+    <cfRule type="expression" dxfId="12" priority="2">
       <formula>G47="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G48 I48:J48 N48:O48 Q48:R48 T48:U48">
-    <cfRule type="expression" dxfId="75" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>G48="NG"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9226,15 +8921,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="47" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
       <c r="I1" s="2" t="s">
         <v>23</v>
       </c>
@@ -9243,26 +8938,26 @@
       </c>
     </row>
     <row r="2" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
       <c r="I2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
       <c r="I3" s="2" t="s">
         <v>25</v>
       </c>
@@ -9346,89 +9041,89 @@
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:22">
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="53" t="s">
+      <c r="D12" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="53" t="s">
+      <c r="E12" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="59" t="s">
+      <c r="F12" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="59"/>
-      <c r="H12" s="60" t="s">
+      <c r="G12" s="65"/>
+      <c r="H12" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="61"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="60" t="s">
+      <c r="I12" s="44"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="L12" s="61"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="60" t="s">
+      <c r="L12" s="44"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="O12" s="61"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="60" t="s">
+      <c r="O12" s="44"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="R12" s="61"/>
-      <c r="S12" s="62"/>
-      <c r="T12" s="60" t="s">
+      <c r="R12" s="44"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="U12" s="61"/>
-      <c r="V12" s="62"/>
+      <c r="U12" s="44"/>
+      <c r="V12" s="45"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="63" t="s">
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="G13" s="64"/>
-      <c r="H13" s="63" t="s">
+      <c r="G13" s="47"/>
+      <c r="H13" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="65"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="63" t="s">
+      <c r="I13" s="48"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="L13" s="65"/>
-      <c r="M13" s="64"/>
-      <c r="N13" s="63" t="s">
+      <c r="L13" s="48"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="O13" s="65"/>
-      <c r="P13" s="64"/>
-      <c r="Q13" s="63" t="s">
+      <c r="O13" s="48"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="R13" s="65"/>
-      <c r="S13" s="64"/>
-      <c r="T13" s="63" t="s">
+      <c r="R13" s="48"/>
+      <c r="S13" s="47"/>
+      <c r="T13" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="U13" s="65"/>
-      <c r="V13" s="64"/>
+      <c r="U13" s="48"/>
+      <c r="V13" s="47"/>
     </row>
     <row r="14" spans="1:22" ht="28.5">
       <c r="A14" s="6"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
       <c r="F14" s="7" t="s">
         <v>16</v>
       </c>
@@ -9485,7 +9180,7 @@
       <c r="B15" s="9">
         <v>1</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="49" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="11" t="s">
@@ -9516,7 +9211,7 @@
       <c r="B16" s="9">
         <v>2</v>
       </c>
-      <c r="C16" s="44"/>
+      <c r="C16" s="50"/>
       <c r="D16" s="11" t="s">
         <v>64</v>
       </c>
@@ -9545,7 +9240,7 @@
       <c r="B17" s="9">
         <v>3</v>
       </c>
-      <c r="C17" s="44"/>
+      <c r="C17" s="50"/>
       <c r="D17" s="13" t="s">
         <v>74</v>
       </c>
@@ -9574,7 +9269,7 @@
       <c r="B18" s="9">
         <v>4</v>
       </c>
-      <c r="C18" s="44"/>
+      <c r="C18" s="50"/>
       <c r="D18" s="13" t="s">
         <v>75</v>
       </c>
@@ -9603,7 +9298,7 @@
       <c r="B19" s="9">
         <v>5</v>
       </c>
-      <c r="C19" s="44"/>
+      <c r="C19" s="50"/>
       <c r="D19" s="11" t="s">
         <v>90</v>
       </c>
@@ -9632,7 +9327,7 @@
       <c r="B20" s="9">
         <v>6</v>
       </c>
-      <c r="C20" s="44"/>
+      <c r="C20" s="50"/>
       <c r="D20" s="13" t="s">
         <v>91</v>
       </c>
@@ -9661,7 +9356,7 @@
       <c r="B21" s="9">
         <v>7</v>
       </c>
-      <c r="C21" s="45"/>
+      <c r="C21" s="51"/>
       <c r="D21" s="13" t="s">
         <v>92</v>
       </c>
@@ -10384,15 +10079,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C15:C21"/>
-    <mergeCell ref="B1:C3"/>
-    <mergeCell ref="D1:H3"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:J12"/>
     <mergeCell ref="K12:M12"/>
     <mergeCell ref="N12:P12"/>
     <mergeCell ref="Q12:S12"/>
@@ -10403,59 +10089,68 @@
     <mergeCell ref="N13:P13"/>
     <mergeCell ref="Q13:S13"/>
     <mergeCell ref="T13:V13"/>
+    <mergeCell ref="C15:C21"/>
+    <mergeCell ref="B1:C3"/>
+    <mergeCell ref="D1:H3"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:J12"/>
   </mergeCells>
   <conditionalFormatting sqref="F22:F45 H15:I23 K15:L45 N15:O45 Q15:R45 T15:U45 H25:I45 I24">
-    <cfRule type="expression" dxfId="74" priority="11">
+    <cfRule type="expression" dxfId="10" priority="11">
       <formula>F15="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46 H46:I46 K46:L46 N46:O46 Q46:R46 T46:U46">
-    <cfRule type="expression" dxfId="73" priority="10">
+    <cfRule type="expression" dxfId="9" priority="10">
       <formula>F46="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47 H47:I47 K47:L47 N47:O47 Q47:R47 T47:U47">
-    <cfRule type="expression" dxfId="72" priority="9">
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>F47="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48 H48:I48 K48:L48 N48:O48 Q48:R48 T48:U48">
-    <cfRule type="expression" dxfId="71" priority="8">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>F48="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="expression" dxfId="13" priority="7">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>F15="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="expression" dxfId="11" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>F16="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="expression" dxfId="9" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>F17="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="expression" dxfId="7" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>F18="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>F19="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>F20="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>F21="NG"</formula>
     </cfRule>
   </conditionalFormatting>
